--- a/BalanceSheet/EW_bal.xlsx
+++ b/BalanceSheet/EW_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2500000.0</v>
+        <v>768000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-2400000.0</v>
+        <v>802000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-19000000.0</v>
+        <v>773000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-64000000.0</v>
+        <v>735000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-35200000.0</v>
+        <v>662000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>640900000.0</v>
@@ -1935,19 +1935,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-9300000.0</v>
+        <v>150000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-30600000.0</v>
+        <v>197000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>81400000.0</v>
+        <v>163000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>9100000.0</v>
+        <v>153000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-144400000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>180400000.0</v>
@@ -3076,19 +3076,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10800000.0</v>
+        <v>-209000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-11600000.0</v>
+        <v>-231000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1400000.0</v>
+        <v>-215000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-42800000.0</v>
+        <v>-204000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3600000.0</v>
+        <v>-158000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>-172000000.0</v>
